--- a/gameconf/rpg/message.xlsx
+++ b/gameconf/rpg/message.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="14175" activeTab="1"/>
+    <workbookView windowWidth="27945" windowHeight="14175"/>
   </bookViews>
   <sheets>
     <sheet name="路由信令表" sheetId="1" r:id="rId1"/>
@@ -981,8 +981,8 @@
   <sheetPr/>
   <dimension ref="A1:A6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A44" sqref="A44"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>
@@ -1032,7 +1032,7 @@
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
